--- a/Timeline and Resposiblities.xlsx
+++ b/Timeline and Resposiblities.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\summi\Desktop\E-Mandi_GroupNo20_May2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4899C046-CBCC-4C6B-B6FF-AC46D2A8CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Timeline" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Roles &amp; Responsiblity" sheetId="2" r:id="rId5"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles &amp; Responsiblity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -122,70 +131,73 @@
     <t>Member Name</t>
   </si>
   <si>
-    <t>Sumit Subinnwar</t>
-  </si>
-  <si>
     <t>PRN No</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Front End</t>
-  </si>
-  <si>
     <t>Teammate</t>
   </si>
   <si>
     <t>Omkar Dalvi</t>
   </si>
   <si>
-    <t>Back End</t>
-  </si>
-  <si>
     <t>Aditya Mohite</t>
   </si>
   <si>
     <t>Shraddha Kadam</t>
+  </si>
+  <si>
+    <t>Sumit Sabbinwar</t>
+  </si>
+  <si>
+    <t>Front End(ReactJS+HTML+CSS)</t>
+  </si>
+  <si>
+    <t>Back End (SpringBoot)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Bahnschrift semibold semiconden"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Bahnschrift semibold condensed"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -195,7 +207,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -223,48 +235,32 @@
     </fill>
   </fills>
   <borders count="28">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -277,168 +273,70 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -450,6 +348,10 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -461,9 +363,10 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -475,9 +378,114 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -486,20 +494,41 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -508,29 +537,43 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -539,143 +582,158 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -839,21 +897,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -870,7 +928,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -920,33 +978,28 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.86"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="26.86"/>
-    <col customWidth="1" min="4" max="4" width="24.86"/>
-    <col customWidth="1" min="5" max="5" width="17.57"/>
-    <col customWidth="1" min="6" max="6" width="19.29"/>
-    <col customWidth="1" min="7" max="7" width="23.29"/>
-    <col customWidth="1" min="8" max="11" width="8.86"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="14.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -959,22 +1012,22 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" ht="43.5" customHeight="1">
+    <row r="2" spans="1:11" ht="43.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1"/>
@@ -982,30 +1035,30 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" ht="50.25" customHeight="1">
+    <row r="3" spans="1:11" ht="50.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
-        <v>44436.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>44467.0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>44468.0</v>
+      <c r="E3" s="5">
+        <v>44436</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44467</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44468</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1018,7 +1071,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1031,21 +1084,21 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" ht="28.5" customHeight="1">
+    <row r="6" spans="1:11" ht="28.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1"/>
@@ -1054,19 +1107,19 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16">
-        <v>44436.0</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="38">
+        <v>44436</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1"/>
@@ -1075,21 +1128,21 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="14.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="19">
-        <v>1.1</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21">
-        <v>44436.0</v>
-      </c>
-      <c r="E8" s="21">
-        <v>44437.0</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="15">
+        <v>44436</v>
+      </c>
+      <c r="E8" s="15">
+        <v>44437</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1"/>
@@ -1098,21 +1151,21 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="14.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>1.2</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="22">
-        <v>44437.0</v>
-      </c>
-      <c r="E9" s="22">
-        <v>44440.0</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="16">
+        <v>44437</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44440</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1"/>
@@ -1121,21 +1174,21 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="14.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="19">
+      <c r="B10" s="13">
         <v>1.3</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="22">
-        <v>44441.0</v>
-      </c>
-      <c r="E10" s="22">
-        <v>44443.0</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="16">
+        <v>44441</v>
+      </c>
+      <c r="E10" s="16">
+        <v>44443</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1"/>
@@ -1144,40 +1197,40 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="14.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="25">
-        <v>44444.0</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="40">
+        <v>44444</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="14.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="19">
+      <c r="B12" s="13">
         <v>2.1</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22">
-        <v>44444.0</v>
-      </c>
-      <c r="E12" s="22">
-        <v>44448.0</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="D12" s="16">
+        <v>44444</v>
+      </c>
+      <c r="E12" s="16">
+        <v>44448</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1"/>
@@ -1186,21 +1239,21 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="14.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="19">
-        <v>2.2</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22">
-        <v>44455.0</v>
-      </c>
-      <c r="E13" s="22">
-        <v>44457.0</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="D13" s="16">
+        <v>44455</v>
+      </c>
+      <c r="E13" s="16">
+        <v>44457</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="1"/>
@@ -1209,21 +1262,21 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="14.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="27">
-        <v>2.3</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="29">
-        <v>44457.0</v>
-      </c>
-      <c r="E14" s="29">
-        <v>44458.0</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="D14" s="21">
+        <v>44457</v>
+      </c>
+      <c r="E14" s="21">
+        <v>44458</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1"/>
@@ -1232,40 +1285,40 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="14.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="17">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="25">
-        <v>44459.0</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="30"/>
+      <c r="D15" s="40">
+        <v>44459</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="14.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="18">
+      <c r="B16" s="12">
         <v>3.1</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="32">
-        <v>44459.0</v>
-      </c>
-      <c r="E16" s="32">
-        <v>44460.0</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="D16" s="24">
+        <v>44459</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44460</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1"/>
@@ -1274,21 +1327,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="14.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="18">
+      <c r="B17" s="12">
         <v>3.2</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="32">
-        <v>44461.0</v>
-      </c>
-      <c r="E17" s="32">
-        <v>44461.0</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="D17" s="24">
+        <v>44461</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44461</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1"/>
@@ -1297,21 +1350,21 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="14.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <v>3.3</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="22">
-        <v>44462.0</v>
-      </c>
-      <c r="E18" s="22">
-        <v>44462.0</v>
-      </c>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="16">
+        <v>44462</v>
+      </c>
+      <c r="E18" s="16">
+        <v>44462</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1"/>
@@ -1320,21 +1373,21 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="14.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="19">
+      <c r="B19" s="13">
         <v>3.4</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="22">
-        <v>44463.0</v>
-      </c>
-      <c r="E19" s="22">
-        <v>44463.0</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="D19" s="16">
+        <v>44463</v>
+      </c>
+      <c r="E19" s="16">
+        <v>44463</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="1"/>
@@ -1343,21 +1396,21 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="14.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="19">
+      <c r="B20" s="13">
         <v>3.5</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="22">
-        <v>44464.0</v>
-      </c>
-      <c r="E20" s="22">
-        <v>44464.0</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="D20" s="16">
+        <v>44464</v>
+      </c>
+      <c r="E20" s="16">
+        <v>44464</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="1"/>
@@ -1366,19 +1419,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="17">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="1"/>
@@ -1387,21 +1440,21 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="19">
-        <v>4.1</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="22">
-        <v>44467.0</v>
-      </c>
-      <c r="E22" s="22">
-        <v>44467.0</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="16">
+        <v>44467</v>
+      </c>
+      <c r="E22" s="16">
+        <v>44467</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="1"/>
@@ -1410,21 +1463,21 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <v>4.2</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="22">
-        <v>44468.0</v>
-      </c>
-      <c r="E23" s="22">
-        <v>44468.0</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="16">
+        <v>44468</v>
+      </c>
+      <c r="E23" s="16">
+        <v>44468</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1"/>
@@ -1433,7 +1486,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1446,7 +1499,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1459,7 +1512,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1472,7 +1525,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1485,7 +1538,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1498,7 +1551,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1511,7 +1564,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1524,7 +1577,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1537,7 +1590,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1550,7 +1603,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1563,7 +1616,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1576,7 +1629,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1589,7 +1642,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1602,7 +1655,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1615,7 +1668,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1628,7 +1681,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1641,7 +1694,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1654,7 +1707,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1667,7 +1720,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1680,7 +1733,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1693,7 +1746,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1706,7 +1759,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1719,7 +1772,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1732,7 +1785,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1745,7 +1798,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1758,7 +1811,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1771,7 +1824,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1784,7 +1837,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1797,7 +1850,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1810,7 +1863,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1823,7 +1876,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1836,7 +1889,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1849,7 +1902,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1862,7 +1915,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1875,7 +1928,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1888,7 +1941,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1901,7 +1954,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1914,7 +1967,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1927,7 +1980,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1940,7 +1993,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1953,7 +2006,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1966,7 +2019,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1979,7 +2032,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1992,7 +2045,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2005,7 +2058,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2018,7 +2071,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2031,7 +2084,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2044,7 +2097,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2057,7 +2110,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2070,7 +2123,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2083,7 +2136,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2096,7 +2149,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2109,7 +2162,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2122,7 +2175,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2135,7 +2188,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2148,7 +2201,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2161,7 +2214,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2174,7 +2227,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2187,7 +2240,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2200,7 +2253,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2213,7 +2266,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2226,7 +2279,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2239,7 +2292,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2252,7 +2305,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2265,7 +2318,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2278,7 +2331,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2291,7 +2344,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2304,7 +2357,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2317,7 +2370,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2330,7 +2383,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2343,7 +2396,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2356,7 +2409,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2369,7 +2422,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2382,7 +2435,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2395,7 +2448,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2408,7 +2461,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2421,7 +2474,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2443,30 +2496,28 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D15:E15"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.86"/>
-    <col customWidth="1" min="3" max="3" width="19.71"/>
-    <col customWidth="1" min="4" max="4" width="38.57"/>
-    <col customWidth="1" min="5" max="11" width="8.86"/>
+    <col min="1" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="5" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="14.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2479,13 +2530,13 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" ht="45.75" customHeight="1">
+    <row r="2" spans="1:11" ht="45.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2494,15 +2545,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="14.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="1"/>
@@ -2513,14 +2564,14 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>36</v>
+      <c r="D4" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2530,14 +2581,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="42">
-        <v>2.10543181108E11</v>
+      <c r="B5" s="44"/>
+      <c r="C5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="29">
+        <v>210543181108</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2547,14 +2598,14 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="14.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>39</v>
+      <c r="B6" s="45"/>
+      <c r="C6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2564,16 +2615,16 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="43">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>40</v>
+      <c r="D7" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2583,14 +2634,14 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="14.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>41</v>
+      <c r="D8" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2600,14 +2651,14 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="14.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="42">
-        <v>2.10543181056E11</v>
+      <c r="B9" s="44"/>
+      <c r="C9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="29">
+        <v>210543181056</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2617,14 +2668,14 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="14.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>42</v>
+      <c r="B10" s="45"/>
+      <c r="C10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2634,16 +2685,16 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="14.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="43">
+        <v>3</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>40</v>
+      <c r="D11" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2653,14 +2704,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="14.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>43</v>
+      <c r="D12" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2670,14 +2721,14 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="14.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="42">
-        <v>2.10543181052E11</v>
+      <c r="B13" s="44"/>
+      <c r="C13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="29">
+        <v>210543181052</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2687,14 +2738,14 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="14.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>42</v>
+      <c r="B14" s="45"/>
+      <c r="C14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2704,16 +2755,16 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="14.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="43">
+        <v>4</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>40</v>
+      <c r="D15" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2723,14 +2774,14 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="14.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>44</v>
+      <c r="D16" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2740,14 +2791,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="14.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="42">
-        <v>2.10543181103E11</v>
+      <c r="B17" s="44"/>
+      <c r="C17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="29">
+        <v>210543181103</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2757,14 +2808,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="14.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>39</v>
+      <c r="B18" s="45"/>
+      <c r="C18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2774,7 +2825,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="14.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2787,7 +2838,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="14.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2800,7 +2851,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2813,7 +2864,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2826,7 +2877,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2839,7 +2890,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2852,7 +2903,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2865,7 +2916,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2878,7 +2929,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2891,7 +2942,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2904,7 +2955,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2917,7 +2968,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2930,7 +2981,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2943,7 +2994,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2956,7 +3007,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2969,7 +3020,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2982,7 +3033,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2995,7 +3046,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3008,7 +3059,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3021,7 +3072,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3034,7 +3085,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3047,7 +3098,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3060,7 +3111,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3073,7 +3124,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3086,7 +3137,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3099,7 +3150,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3112,7 +3163,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3125,7 +3176,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3138,7 +3189,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3151,7 +3202,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3164,7 +3215,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3177,7 +3228,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3190,7 +3241,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3203,7 +3254,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3216,7 +3267,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3229,7 +3280,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3242,7 +3293,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3255,7 +3306,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3268,7 +3319,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3281,7 +3332,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3294,7 +3345,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3307,7 +3358,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3320,7 +3371,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3333,7 +3384,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3346,7 +3397,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3359,7 +3410,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3372,7 +3423,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3385,7 +3436,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3398,7 +3449,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3411,7 +3462,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3424,7 +3475,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3437,7 +3488,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3450,7 +3501,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3463,7 +3514,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3476,7 +3527,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3489,7 +3540,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3502,7 +3553,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3515,7 +3566,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3528,7 +3579,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3541,7 +3592,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3554,7 +3605,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3567,7 +3618,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3580,7 +3631,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3593,7 +3644,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3606,7 +3657,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3619,7 +3670,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3632,7 +3683,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3645,7 +3696,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3658,7 +3709,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3671,7 +3722,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3684,7 +3735,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3697,7 +3748,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3710,7 +3761,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3723,7 +3774,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3736,7 +3787,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3749,7 +3800,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3762,7 +3813,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3775,7 +3826,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3788,7 +3839,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3801,7 +3852,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3814,7 +3865,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3827,7 +3878,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3848,9 +3899,7 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B15:B18"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>